--- a/test/data/Umurenge_SACCOs_Dec2014.xlsx
+++ b/test/data/Umurenge_SACCOs_Dec2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shemasteve/Desktop/SGs Data/2014_AFR_Data/Financial Institutions/SACCOs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shemasteve/Desktop/SGs Data/2014_AFR_Data/Remy_2014_SGData/Financial Institutions/SACCOs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="791">
   <si>
     <t>Province</t>
   </si>
@@ -2397,6 +2397,12 @@
   </si>
   <si>
     <t>RUSEBEYA</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2501,6 +2507,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2783,10 +2798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2795,9 +2810,10 @@
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2810,8 +2826,14 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2824,8 +2846,14 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2838,8 +2866,14 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2852,8 +2886,14 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2866,8 +2906,14 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2880,8 +2926,14 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2894,8 +2946,14 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2908,8 +2966,14 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2922,8 +2986,14 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2936,8 +3006,14 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2950,8 +3026,14 @@
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3046,14 @@
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2978,8 +3066,14 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2992,8 +3086,14 @@
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3006,8 +3106,14 @@
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3020,8 +3126,14 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3034,8 +3146,14 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -3048,8 +3166,14 @@
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -3062,8 +3186,14 @@
       <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3076,8 +3206,14 @@
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -3090,8 +3226,14 @@
       <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3104,8 +3246,14 @@
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -3118,8 +3266,14 @@
       <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3132,8 +3286,14 @@
       <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3146,8 +3306,14 @@
       <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3160,8 +3326,14 @@
       <c r="D26" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3174,8 +3346,14 @@
       <c r="D27" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3188,8 +3366,14 @@
       <c r="D28" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3202,8 +3386,14 @@
       <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -3216,8 +3406,14 @@
       <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -3230,8 +3426,14 @@
       <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -3244,8 +3446,14 @@
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3258,8 +3466,14 @@
       <c r="D33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -3272,8 +3486,14 @@
       <c r="D34" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,8 +3506,14 @@
       <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -3300,8 +3526,14 @@
       <c r="D36" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -3314,8 +3546,14 @@
       <c r="D37" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -3328,8 +3566,14 @@
       <c r="D38" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -3342,8 +3586,14 @@
       <c r="D39" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3606,14 @@
       <c r="D40" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -3370,8 +3626,14 @@
       <c r="D41" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3384,8 +3646,14 @@
       <c r="D42" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -3398,8 +3666,14 @@
       <c r="D43" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -3412,8 +3686,14 @@
       <c r="D44" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -3426,8 +3706,14 @@
       <c r="D45" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -3440,8 +3726,14 @@
       <c r="D46" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -3454,8 +3746,14 @@
       <c r="D47" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -3468,8 +3766,14 @@
       <c r="D48" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -3482,8 +3786,14 @@
       <c r="D49" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -3496,8 +3806,14 @@
       <c r="D50" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -3510,8 +3826,14 @@
       <c r="D51" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -3524,8 +3846,14 @@
       <c r="D52" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -3538,8 +3866,14 @@
       <c r="D53" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -3552,8 +3886,14 @@
       <c r="D54" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -3566,8 +3906,14 @@
       <c r="D55" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -3580,8 +3926,14 @@
       <c r="D56" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -3594,8 +3946,14 @@
       <c r="D57" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -3608,8 +3966,14 @@
       <c r="D58" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -3622,8 +3986,14 @@
       <c r="D59" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -3636,8 +4006,14 @@
       <c r="D60" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -3650,8 +4026,14 @@
       <c r="D61" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -3664,8 +4046,14 @@
       <c r="D62" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -3678,8 +4066,14 @@
       <c r="D63" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -3692,8 +4086,14 @@
       <c r="D64" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -3706,8 +4106,14 @@
       <c r="D65" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3720,8 +4126,14 @@
       <c r="D66" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3734,8 +4146,14 @@
       <c r="D67" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -3748,8 +4166,14 @@
       <c r="D68" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3762,8 +4186,14 @@
       <c r="D69" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -3776,8 +4206,14 @@
       <c r="D70" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -3790,8 +4226,14 @@
       <c r="D71" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -3804,8 +4246,14 @@
       <c r="D72" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3818,8 +4266,14 @@
       <c r="D73" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -3832,8 +4286,14 @@
       <c r="D74" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>4</v>
       </c>
@@ -3846,8 +4306,14 @@
       <c r="D75" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -3860,8 +4326,14 @@
       <c r="D76" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3874,8 +4346,14 @@
       <c r="D77" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3888,8 +4366,14 @@
       <c r="D78" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3902,8 +4386,14 @@
       <c r="D79" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3916,8 +4406,14 @@
       <c r="D80" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3930,8 +4426,14 @@
       <c r="D81" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3944,8 +4446,14 @@
       <c r="D82" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -3958,8 +4466,14 @@
       <c r="D83" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -3972,8 +4486,14 @@
       <c r="D84" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
@@ -3986,8 +4506,14 @@
       <c r="D85" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -4000,8 +4526,14 @@
       <c r="D86" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -4014,8 +4546,14 @@
       <c r="D87" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
@@ -4028,8 +4566,14 @@
       <c r="D88" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -4042,8 +4586,14 @@
       <c r="D89" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -4056,8 +4606,14 @@
       <c r="D90" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -4070,8 +4626,14 @@
       <c r="D91" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -4084,8 +4646,14 @@
       <c r="D92" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
@@ -4098,8 +4666,14 @@
       <c r="D93" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
@@ -4112,8 +4686,14 @@
       <c r="D94" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
@@ -4126,8 +4706,14 @@
       <c r="D95" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -4140,8 +4726,14 @@
       <c r="D96" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>183</v>
       </c>
@@ -4154,8 +4746,14 @@
       <c r="D97" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+      <c r="F97" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
@@ -4168,8 +4766,14 @@
       <c r="D98" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>183</v>
       </c>
@@ -4182,8 +4786,14 @@
       <c r="D99" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>183</v>
       </c>
@@ -4196,8 +4806,14 @@
       <c r="D100" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
@@ -4210,8 +4826,14 @@
       <c r="D101" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -4224,8 +4846,14 @@
       <c r="D102" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
@@ -4238,8 +4866,14 @@
       <c r="D103" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -4252,8 +4886,14 @@
       <c r="D104" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -4266,8 +4906,14 @@
       <c r="D105" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>183</v>
       </c>
@@ -4280,8 +4926,14 @@
       <c r="D106" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F106" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>183</v>
       </c>
@@ -4294,8 +4946,14 @@
       <c r="D107" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F107" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>183</v>
       </c>
@@ -4308,8 +4966,14 @@
       <c r="D108" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E108" s="4">
+        <v>1</v>
+      </c>
+      <c r="F108" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>183</v>
       </c>
@@ -4322,8 +4986,14 @@
       <c r="D109" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F109" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>183</v>
       </c>
@@ -4336,8 +5006,14 @@
       <c r="D110" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>183</v>
       </c>
@@ -4350,8 +5026,14 @@
       <c r="D111" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>183</v>
       </c>
@@ -4364,8 +5046,14 @@
       <c r="D112" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E112" s="4">
+        <v>1</v>
+      </c>
+      <c r="F112" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>183</v>
       </c>
@@ -4378,8 +5066,14 @@
       <c r="D113" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>183</v>
       </c>
@@ -4392,8 +5086,14 @@
       <c r="D114" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>183</v>
       </c>
@@ -4406,8 +5106,14 @@
       <c r="D115" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F115" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>183</v>
       </c>
@@ -4420,8 +5126,14 @@
       <c r="D116" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>183</v>
       </c>
@@ -4434,8 +5146,14 @@
       <c r="D117" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>183</v>
       </c>
@@ -4448,8 +5166,14 @@
       <c r="D118" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>183</v>
       </c>
@@ -4462,8 +5186,14 @@
       <c r="D119" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>183</v>
       </c>
@@ -4476,8 +5206,14 @@
       <c r="D120" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>183</v>
       </c>
@@ -4490,8 +5226,14 @@
       <c r="D121" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>183</v>
       </c>
@@ -4504,8 +5246,14 @@
       <c r="D122" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>183</v>
       </c>
@@ -4518,8 +5266,14 @@
       <c r="D123" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
@@ -4532,8 +5286,14 @@
       <c r="D124" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E124" s="4">
+        <v>1</v>
+      </c>
+      <c r="F124" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>183</v>
       </c>
@@ -4546,8 +5306,14 @@
       <c r="D125" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E125" s="4">
+        <v>1</v>
+      </c>
+      <c r="F125" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>183</v>
       </c>
@@ -4560,8 +5326,14 @@
       <c r="D126" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+      <c r="F126" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>183</v>
       </c>
@@ -4574,8 +5346,14 @@
       <c r="D127" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>183</v>
       </c>
@@ -4588,8 +5366,14 @@
       <c r="D128" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F128" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>183</v>
       </c>
@@ -4602,8 +5386,14 @@
       <c r="D129" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E129" s="4">
+        <v>1</v>
+      </c>
+      <c r="F129" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>183</v>
       </c>
@@ -4616,8 +5406,14 @@
       <c r="D130" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E130" s="4">
+        <v>1</v>
+      </c>
+      <c r="F130" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>183</v>
       </c>
@@ -4630,8 +5426,14 @@
       <c r="D131" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>249</v>
       </c>
@@ -4644,8 +5446,14 @@
       <c r="D132" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>249</v>
       </c>
@@ -4658,8 +5466,14 @@
       <c r="D133" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>249</v>
       </c>
@@ -4672,8 +5486,14 @@
       <c r="D134" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>249</v>
       </c>
@@ -4686,8 +5506,14 @@
       <c r="D135" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>249</v>
       </c>
@@ -4700,8 +5526,14 @@
       <c r="D136" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>249</v>
       </c>
@@ -4714,8 +5546,14 @@
       <c r="D137" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>249</v>
       </c>
@@ -4728,8 +5566,14 @@
       <c r="D138" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>249</v>
       </c>
@@ -4742,8 +5586,14 @@
       <c r="D139" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>249</v>
       </c>
@@ -4756,8 +5606,14 @@
       <c r="D140" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F140" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>249</v>
       </c>
@@ -4770,8 +5626,14 @@
       <c r="D141" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E141" s="4">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -4784,8 +5646,14 @@
       <c r="D142" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F142" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>249</v>
       </c>
@@ -4798,8 +5666,14 @@
       <c r="D143" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E143" s="4">
+        <v>1</v>
+      </c>
+      <c r="F143" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>249</v>
       </c>
@@ -4812,8 +5686,14 @@
       <c r="D144" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E144" s="4">
+        <v>1</v>
+      </c>
+      <c r="F144" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>249</v>
       </c>
@@ -4826,8 +5706,14 @@
       <c r="D145" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E145" s="4">
+        <v>1</v>
+      </c>
+      <c r="F145" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>249</v>
       </c>
@@ -4840,8 +5726,14 @@
       <c r="D146" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E146" s="4">
+        <v>1</v>
+      </c>
+      <c r="F146" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>249</v>
       </c>
@@ -4854,8 +5746,14 @@
       <c r="D147" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E147" s="4">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>249</v>
       </c>
@@ -4868,8 +5766,14 @@
       <c r="D148" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E148" s="4">
+        <v>1</v>
+      </c>
+      <c r="F148" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>249</v>
       </c>
@@ -4882,8 +5786,14 @@
       <c r="D149" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E149" s="4">
+        <v>1</v>
+      </c>
+      <c r="F149" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>249</v>
       </c>
@@ -4896,8 +5806,14 @@
       <c r="D150" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E150" s="4">
+        <v>1</v>
+      </c>
+      <c r="F150" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>249</v>
       </c>
@@ -4910,8 +5826,14 @@
       <c r="D151" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>249</v>
       </c>
@@ -4924,8 +5846,14 @@
       <c r="D152" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>249</v>
       </c>
@@ -4938,8 +5866,14 @@
       <c r="D153" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>249</v>
       </c>
@@ -4952,8 +5886,14 @@
       <c r="D154" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E154" s="4">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>249</v>
       </c>
@@ -4966,8 +5906,14 @@
       <c r="D155" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>249</v>
       </c>
@@ -4980,8 +5926,14 @@
       <c r="D156" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>249</v>
       </c>
@@ -4994,8 +5946,14 @@
       <c r="D157" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>249</v>
       </c>
@@ -5008,8 +5966,14 @@
       <c r="D158" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>249</v>
       </c>
@@ -5022,8 +5986,14 @@
       <c r="D159" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>249</v>
       </c>
@@ -5036,8 +6006,14 @@
       <c r="D160" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>249</v>
       </c>
@@ -5050,8 +6026,14 @@
       <c r="D161" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>249</v>
       </c>
@@ -5064,8 +6046,14 @@
       <c r="D162" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>249</v>
       </c>
@@ -5078,8 +6066,14 @@
       <c r="D163" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>249</v>
       </c>
@@ -5092,8 +6086,14 @@
       <c r="D164" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>249</v>
       </c>
@@ -5106,8 +6106,14 @@
       <c r="D165" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>249</v>
       </c>
@@ -5120,8 +6126,14 @@
       <c r="D166" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>249</v>
       </c>
@@ -5134,8 +6146,14 @@
       <c r="D167" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>249</v>
       </c>
@@ -5148,8 +6166,14 @@
       <c r="D168" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F168" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>249</v>
       </c>
@@ -5162,8 +6186,14 @@
       <c r="D169" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>249</v>
       </c>
@@ -5176,8 +6206,14 @@
       <c r="D170" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>249</v>
       </c>
@@ -5190,8 +6226,14 @@
       <c r="D171" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>249</v>
       </c>
@@ -5204,8 +6246,14 @@
       <c r="D172" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>249</v>
       </c>
@@ -5218,8 +6266,14 @@
       <c r="D173" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F173" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>249</v>
       </c>
@@ -5232,8 +6286,14 @@
       <c r="D174" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E174" s="4">
+        <v>1</v>
+      </c>
+      <c r="F174" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>249</v>
       </c>
@@ -5246,8 +6306,14 @@
       <c r="D175" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E175" s="4">
+        <v>1</v>
+      </c>
+      <c r="F175" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>249</v>
       </c>
@@ -5260,8 +6326,14 @@
       <c r="D176" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E176" s="4">
+        <v>1</v>
+      </c>
+      <c r="F176" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>249</v>
       </c>
@@ -5274,8 +6346,14 @@
       <c r="D177" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>249</v>
       </c>
@@ -5288,8 +6366,14 @@
       <c r="D178" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E178" s="4">
+        <v>1</v>
+      </c>
+      <c r="F178" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>249</v>
       </c>
@@ -5302,8 +6386,14 @@
       <c r="D179" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E179" s="4">
+        <v>1</v>
+      </c>
+      <c r="F179" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>249</v>
       </c>
@@ -5316,8 +6406,14 @@
       <c r="D180" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E180" s="4">
+        <v>1</v>
+      </c>
+      <c r="F180" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>249</v>
       </c>
@@ -5330,8 +6426,14 @@
       <c r="D181" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E181" s="4">
+        <v>1</v>
+      </c>
+      <c r="F181" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>249</v>
       </c>
@@ -5344,8 +6446,14 @@
       <c r="D182" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E182" s="4">
+        <v>1</v>
+      </c>
+      <c r="F182" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>249</v>
       </c>
@@ -5358,8 +6466,14 @@
       <c r="D183" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>249</v>
       </c>
@@ -5372,8 +6486,14 @@
       <c r="D184" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E184" s="4">
+        <v>1</v>
+      </c>
+      <c r="F184" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>249</v>
       </c>
@@ -5386,8 +6506,14 @@
       <c r="D185" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E185" s="4">
+        <v>1</v>
+      </c>
+      <c r="F185" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>249</v>
       </c>
@@ -5400,8 +6526,14 @@
       <c r="D186" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E186" s="4">
+        <v>1</v>
+      </c>
+      <c r="F186" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>249</v>
       </c>
@@ -5414,8 +6546,14 @@
       <c r="D187" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E187" s="4">
+        <v>1</v>
+      </c>
+      <c r="F187" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>249</v>
       </c>
@@ -5428,8 +6566,14 @@
       <c r="D188" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E188" s="4">
+        <v>1</v>
+      </c>
+      <c r="F188" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>249</v>
       </c>
@@ -5442,8 +6586,14 @@
       <c r="D189" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E189" s="4">
+        <v>1</v>
+      </c>
+      <c r="F189" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>249</v>
       </c>
@@ -5456,8 +6606,14 @@
       <c r="D190" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E190" s="4">
+        <v>1</v>
+      </c>
+      <c r="F190" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>249</v>
       </c>
@@ -5470,8 +6626,14 @@
       <c r="D191" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F191" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>249</v>
       </c>
@@ -5484,8 +6646,14 @@
       <c r="D192" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E192" s="4">
+        <v>1</v>
+      </c>
+      <c r="F192" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>249</v>
       </c>
@@ -5498,8 +6666,14 @@
       <c r="D193" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E193" s="4">
+        <v>1</v>
+      </c>
+      <c r="F193" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>249</v>
       </c>
@@ -5512,8 +6686,14 @@
       <c r="D194" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E194" s="4">
+        <v>1</v>
+      </c>
+      <c r="F194" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>249</v>
       </c>
@@ -5526,8 +6706,14 @@
       <c r="D195" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E195" s="4">
+        <v>1</v>
+      </c>
+      <c r="F195" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>249</v>
       </c>
@@ -5540,8 +6726,14 @@
       <c r="D196" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E196" s="4">
+        <v>1</v>
+      </c>
+      <c r="F196" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>249</v>
       </c>
@@ -5554,8 +6746,14 @@
       <c r="D197" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E197" s="4">
+        <v>1</v>
+      </c>
+      <c r="F197" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>249</v>
       </c>
@@ -5568,8 +6766,14 @@
       <c r="D198" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E198" s="4">
+        <v>1</v>
+      </c>
+      <c r="F198" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>249</v>
       </c>
@@ -5582,8 +6786,14 @@
       <c r="D199" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E199" s="4">
+        <v>1</v>
+      </c>
+      <c r="F199" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>249</v>
       </c>
@@ -5596,8 +6806,14 @@
       <c r="D200" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E200" s="4">
+        <v>1</v>
+      </c>
+      <c r="F200" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>249</v>
       </c>
@@ -5610,8 +6826,14 @@
       <c r="D201" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E201" s="4">
+        <v>1</v>
+      </c>
+      <c r="F201" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>249</v>
       </c>
@@ -5624,8 +6846,14 @@
       <c r="D202" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E202" s="4">
+        <v>1</v>
+      </c>
+      <c r="F202" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>249</v>
       </c>
@@ -5638,8 +6866,14 @@
       <c r="D203" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E203" s="4">
+        <v>1</v>
+      </c>
+      <c r="F203" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>249</v>
       </c>
@@ -5652,8 +6886,14 @@
       <c r="D204" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E204" s="4">
+        <v>1</v>
+      </c>
+      <c r="F204" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>249</v>
       </c>
@@ -5666,8 +6906,14 @@
       <c r="D205" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E205" s="4">
+        <v>1</v>
+      </c>
+      <c r="F205" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>249</v>
       </c>
@@ -5680,8 +6926,14 @@
       <c r="D206" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E206" s="4">
+        <v>1</v>
+      </c>
+      <c r="F206" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>249</v>
       </c>
@@ -5694,8 +6946,14 @@
       <c r="D207" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E207" s="4">
+        <v>1</v>
+      </c>
+      <c r="F207" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>249</v>
       </c>
@@ -5708,8 +6966,14 @@
       <c r="D208" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E208" s="4">
+        <v>1</v>
+      </c>
+      <c r="F208" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>249</v>
       </c>
@@ -5722,8 +6986,14 @@
       <c r="D209" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E209" s="4">
+        <v>1</v>
+      </c>
+      <c r="F209" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>249</v>
       </c>
@@ -5736,8 +7006,14 @@
       <c r="D210" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E210" s="4">
+        <v>1</v>
+      </c>
+      <c r="F210" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>249</v>
       </c>
@@ -5750,8 +7026,14 @@
       <c r="D211" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E211" s="4">
+        <v>1</v>
+      </c>
+      <c r="F211" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>249</v>
       </c>
@@ -5764,8 +7046,14 @@
       <c r="D212" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E212" s="4">
+        <v>1</v>
+      </c>
+      <c r="F212" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>249</v>
       </c>
@@ -5778,8 +7066,14 @@
       <c r="D213" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E213" s="4">
+        <v>1</v>
+      </c>
+      <c r="F213" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>249</v>
       </c>
@@ -5792,8 +7086,14 @@
       <c r="D214" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E214" s="4">
+        <v>1</v>
+      </c>
+      <c r="F214" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>249</v>
       </c>
@@ -5806,8 +7106,14 @@
       <c r="D215" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E215" s="4">
+        <v>1</v>
+      </c>
+      <c r="F215" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>249</v>
       </c>
@@ -5820,8 +7126,14 @@
       <c r="D216" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E216" s="4">
+        <v>1</v>
+      </c>
+      <c r="F216" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>249</v>
       </c>
@@ -5834,8 +7146,14 @@
       <c r="D217" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E217" s="4">
+        <v>1</v>
+      </c>
+      <c r="F217" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>249</v>
       </c>
@@ -5848,8 +7166,14 @@
       <c r="D218" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E218" s="4">
+        <v>1</v>
+      </c>
+      <c r="F218" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>249</v>
       </c>
@@ -5862,8 +7186,14 @@
       <c r="D219" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E219" s="4">
+        <v>1</v>
+      </c>
+      <c r="F219" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>249</v>
       </c>
@@ -5876,8 +7206,14 @@
       <c r="D220" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E220" s="4">
+        <v>1</v>
+      </c>
+      <c r="F220" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>419</v>
       </c>
@@ -5890,8 +7226,14 @@
       <c r="D221" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E221" s="4">
+        <v>1</v>
+      </c>
+      <c r="F221" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>419</v>
       </c>
@@ -5904,8 +7246,14 @@
       <c r="D222" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F222" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>419</v>
       </c>
@@ -5918,8 +7266,14 @@
       <c r="D223" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E223" s="4">
+        <v>1</v>
+      </c>
+      <c r="F223" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>419</v>
       </c>
@@ -5932,8 +7286,14 @@
       <c r="D224" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E224" s="4">
+        <v>1</v>
+      </c>
+      <c r="F224" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>419</v>
       </c>
@@ -5946,8 +7306,14 @@
       <c r="D225" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E225" s="4">
+        <v>1</v>
+      </c>
+      <c r="F225" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>419</v>
       </c>
@@ -5960,8 +7326,14 @@
       <c r="D226" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E226" s="4">
+        <v>1</v>
+      </c>
+      <c r="F226" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>419</v>
       </c>
@@ -5974,8 +7346,14 @@
       <c r="D227" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E227" s="4">
+        <v>1</v>
+      </c>
+      <c r="F227" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>419</v>
       </c>
@@ -5988,8 +7366,14 @@
       <c r="D228" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E228" s="4">
+        <v>1</v>
+      </c>
+      <c r="F228" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>419</v>
       </c>
@@ -6002,8 +7386,14 @@
       <c r="D229" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E229" s="4">
+        <v>1</v>
+      </c>
+      <c r="F229" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>419</v>
       </c>
@@ -6016,8 +7406,14 @@
       <c r="D230" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E230" s="4">
+        <v>1</v>
+      </c>
+      <c r="F230" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>419</v>
       </c>
@@ -6030,8 +7426,14 @@
       <c r="D231" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E231" s="4">
+        <v>1</v>
+      </c>
+      <c r="F231" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>419</v>
       </c>
@@ -6044,8 +7446,14 @@
       <c r="D232" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E232" s="4">
+        <v>1</v>
+      </c>
+      <c r="F232" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>419</v>
       </c>
@@ -6058,8 +7466,14 @@
       <c r="D233" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E233" s="4">
+        <v>1</v>
+      </c>
+      <c r="F233" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>419</v>
       </c>
@@ -6072,8 +7486,14 @@
       <c r="D234" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>419</v>
       </c>
@@ -6086,8 +7506,14 @@
       <c r="D235" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E235" s="4">
+        <v>1</v>
+      </c>
+      <c r="F235" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>419</v>
       </c>
@@ -6100,8 +7526,14 @@
       <c r="D236" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E236" s="4">
+        <v>1</v>
+      </c>
+      <c r="F236" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>419</v>
       </c>
@@ -6114,8 +7546,14 @@
       <c r="D237" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E237" s="4">
+        <v>1</v>
+      </c>
+      <c r="F237" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>419</v>
       </c>
@@ -6128,8 +7566,14 @@
       <c r="D238" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E238" s="4">
+        <v>1</v>
+      </c>
+      <c r="F238" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>419</v>
       </c>
@@ -6142,8 +7586,14 @@
       <c r="D239" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E239" s="4">
+        <v>1</v>
+      </c>
+      <c r="F239" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>419</v>
       </c>
@@ -6156,8 +7606,14 @@
       <c r="D240" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E240" s="4">
+        <v>1</v>
+      </c>
+      <c r="F240" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>419</v>
       </c>
@@ -6170,8 +7626,14 @@
       <c r="D241" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E241" s="4">
+        <v>1</v>
+      </c>
+      <c r="F241" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>419</v>
       </c>
@@ -6184,8 +7646,14 @@
       <c r="D242" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E242" s="4">
+        <v>1</v>
+      </c>
+      <c r="F242" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>419</v>
       </c>
@@ -6198,8 +7666,14 @@
       <c r="D243" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E243" s="4">
+        <v>1</v>
+      </c>
+      <c r="F243" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>419</v>
       </c>
@@ -6212,8 +7686,14 @@
       <c r="D244" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E244" s="4">
+        <v>1</v>
+      </c>
+      <c r="F244" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>419</v>
       </c>
@@ -6226,8 +7706,14 @@
       <c r="D245" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E245" s="4">
+        <v>1</v>
+      </c>
+      <c r="F245" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>419</v>
       </c>
@@ -6240,8 +7726,14 @@
       <c r="D246" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E246" s="4">
+        <v>1</v>
+      </c>
+      <c r="F246" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>419</v>
       </c>
@@ -6254,8 +7746,14 @@
       <c r="D247" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E247" s="4">
+        <v>1</v>
+      </c>
+      <c r="F247" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>419</v>
       </c>
@@ -6268,8 +7766,14 @@
       <c r="D248" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E248" s="4">
+        <v>1</v>
+      </c>
+      <c r="F248" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>419</v>
       </c>
@@ -6282,8 +7786,14 @@
       <c r="D249" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E249" s="4">
+        <v>1</v>
+      </c>
+      <c r="F249" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>419</v>
       </c>
@@ -6296,8 +7806,14 @@
       <c r="D250" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E250" s="4">
+        <v>1</v>
+      </c>
+      <c r="F250" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>419</v>
       </c>
@@ -6310,8 +7826,14 @@
       <c r="D251" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E251" s="4">
+        <v>1</v>
+      </c>
+      <c r="F251" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>419</v>
       </c>
@@ -6324,8 +7846,14 @@
       <c r="D252" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E252" s="4">
+        <v>1</v>
+      </c>
+      <c r="F252" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>419</v>
       </c>
@@ -6338,8 +7866,14 @@
       <c r="D253" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E253" s="4">
+        <v>1</v>
+      </c>
+      <c r="F253" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>419</v>
       </c>
@@ -6352,8 +7886,14 @@
       <c r="D254" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E254" s="4">
+        <v>1</v>
+      </c>
+      <c r="F254" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>419</v>
       </c>
@@ -6366,8 +7906,14 @@
       <c r="D255" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E255" s="4">
+        <v>1</v>
+      </c>
+      <c r="F255" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>419</v>
       </c>
@@ -6380,8 +7926,14 @@
       <c r="D256" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E256" s="4">
+        <v>1</v>
+      </c>
+      <c r="F256" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>419</v>
       </c>
@@ -6394,8 +7946,14 @@
       <c r="D257" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E257" s="4">
+        <v>1</v>
+      </c>
+      <c r="F257" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>419</v>
       </c>
@@ -6408,8 +7966,14 @@
       <c r="D258" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E258" s="4">
+        <v>1</v>
+      </c>
+      <c r="F258" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>419</v>
       </c>
@@ -6422,8 +7986,14 @@
       <c r="D259" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E259" s="4">
+        <v>1</v>
+      </c>
+      <c r="F259" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>419</v>
       </c>
@@ -6436,8 +8006,14 @@
       <c r="D260" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E260" s="4">
+        <v>1</v>
+      </c>
+      <c r="F260" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>419</v>
       </c>
@@ -6450,8 +8026,14 @@
       <c r="D261" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E261" s="4">
+        <v>1</v>
+      </c>
+      <c r="F261" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>419</v>
       </c>
@@ -6464,8 +8046,14 @@
       <c r="D262" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E262" s="4">
+        <v>1</v>
+      </c>
+      <c r="F262" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>419</v>
       </c>
@@ -6478,8 +8066,14 @@
       <c r="D263" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E263" s="4">
+        <v>1</v>
+      </c>
+      <c r="F263" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>419</v>
       </c>
@@ -6492,8 +8086,14 @@
       <c r="D264" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E264" s="4">
+        <v>1</v>
+      </c>
+      <c r="F264" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>419</v>
       </c>
@@ -6506,8 +8106,14 @@
       <c r="D265" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E265" s="4">
+        <v>1</v>
+      </c>
+      <c r="F265" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>419</v>
       </c>
@@ -6520,8 +8126,14 @@
       <c r="D266" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E266" s="4">
+        <v>1</v>
+      </c>
+      <c r="F266" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>419</v>
       </c>
@@ -6534,8 +8146,14 @@
       <c r="D267" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E267" s="4">
+        <v>1</v>
+      </c>
+      <c r="F267" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>419</v>
       </c>
@@ -6548,8 +8166,14 @@
       <c r="D268" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E268" s="4">
+        <v>1</v>
+      </c>
+      <c r="F268" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>419</v>
       </c>
@@ -6562,8 +8186,14 @@
       <c r="D269" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E269" s="4">
+        <v>1</v>
+      </c>
+      <c r="F269" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>419</v>
       </c>
@@ -6576,8 +8206,14 @@
       <c r="D270" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E270" s="4">
+        <v>1</v>
+      </c>
+      <c r="F270" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>419</v>
       </c>
@@ -6590,8 +8226,14 @@
       <c r="D271" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E271" s="4">
+        <v>1</v>
+      </c>
+      <c r="F271" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>419</v>
       </c>
@@ -6604,8 +8246,14 @@
       <c r="D272" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E272" s="4">
+        <v>1</v>
+      </c>
+      <c r="F272" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>419</v>
       </c>
@@ -6618,8 +8266,14 @@
       <c r="D273" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E273" s="4">
+        <v>1</v>
+      </c>
+      <c r="F273" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>419</v>
       </c>
@@ -6632,8 +8286,14 @@
       <c r="D274" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E274" s="4">
+        <v>1</v>
+      </c>
+      <c r="F274" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>419</v>
       </c>
@@ -6646,8 +8306,14 @@
       <c r="D275" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E275" s="4">
+        <v>1</v>
+      </c>
+      <c r="F275" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>419</v>
       </c>
@@ -6660,8 +8326,14 @@
       <c r="D276" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E276" s="4">
+        <v>1</v>
+      </c>
+      <c r="F276" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>419</v>
       </c>
@@ -6674,8 +8346,14 @@
       <c r="D277" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E277" s="4">
+        <v>1</v>
+      </c>
+      <c r="F277" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>419</v>
       </c>
@@ -6688,8 +8366,14 @@
       <c r="D278" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E278" s="4">
+        <v>1</v>
+      </c>
+      <c r="F278" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>419</v>
       </c>
@@ -6702,8 +8386,14 @@
       <c r="D279" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E279" s="4">
+        <v>1</v>
+      </c>
+      <c r="F279" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>419</v>
       </c>
@@ -6716,8 +8406,14 @@
       <c r="D280" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E280" s="4">
+        <v>1</v>
+      </c>
+      <c r="F280" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>419</v>
       </c>
@@ -6730,8 +8426,14 @@
       <c r="D281" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E281" s="4">
+        <v>1</v>
+      </c>
+      <c r="F281" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>419</v>
       </c>
@@ -6744,8 +8446,14 @@
       <c r="D282" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E282" s="4">
+        <v>1</v>
+      </c>
+      <c r="F282" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>419</v>
       </c>
@@ -6758,8 +8466,14 @@
       <c r="D283" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E283" s="4">
+        <v>1</v>
+      </c>
+      <c r="F283" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>419</v>
       </c>
@@ -6772,8 +8486,14 @@
       <c r="D284" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E284" s="4">
+        <v>1</v>
+      </c>
+      <c r="F284" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>419</v>
       </c>
@@ -6786,8 +8506,14 @@
       <c r="D285" s="3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E285" s="4">
+        <v>1</v>
+      </c>
+      <c r="F285" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>419</v>
       </c>
@@ -6800,8 +8526,14 @@
       <c r="D286" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E286" s="4">
+        <v>1</v>
+      </c>
+      <c r="F286" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>419</v>
       </c>
@@ -6814,8 +8546,14 @@
       <c r="D287" s="3" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E287" s="4">
+        <v>1</v>
+      </c>
+      <c r="F287" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>419</v>
       </c>
@@ -6828,8 +8566,14 @@
       <c r="D288" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E288" s="4">
+        <v>1</v>
+      </c>
+      <c r="F288" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>419</v>
       </c>
@@ -6842,8 +8586,14 @@
       <c r="D289" s="3" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E289" s="4">
+        <v>1</v>
+      </c>
+      <c r="F289" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>419</v>
       </c>
@@ -6856,8 +8606,14 @@
       <c r="D290" s="3" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E290" s="4">
+        <v>1</v>
+      </c>
+      <c r="F290" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>419</v>
       </c>
@@ -6870,8 +8626,14 @@
       <c r="D291" s="3" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E291" s="4">
+        <v>1</v>
+      </c>
+      <c r="F291" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>419</v>
       </c>
@@ -6884,8 +8646,14 @@
       <c r="D292" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E292" s="4">
+        <v>1</v>
+      </c>
+      <c r="F292" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>419</v>
       </c>
@@ -6898,8 +8666,14 @@
       <c r="D293" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E293" s="4">
+        <v>1</v>
+      </c>
+      <c r="F293" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>419</v>
       </c>
@@ -6912,8 +8686,14 @@
       <c r="D294" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E294" s="4">
+        <v>1</v>
+      </c>
+      <c r="F294" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>419</v>
       </c>
@@ -6926,8 +8706,14 @@
       <c r="D295" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E295" s="4">
+        <v>1</v>
+      </c>
+      <c r="F295" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>419</v>
       </c>
@@ -6940,8 +8726,14 @@
       <c r="D296" s="3" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E296" s="4">
+        <v>1</v>
+      </c>
+      <c r="F296" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>419</v>
       </c>
@@ -6954,8 +8746,14 @@
       <c r="D297" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E297" s="4">
+        <v>1</v>
+      </c>
+      <c r="F297" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>419</v>
       </c>
@@ -6968,8 +8766,14 @@
       <c r="D298" s="3" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E298" s="4">
+        <v>1</v>
+      </c>
+      <c r="F298" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>419</v>
       </c>
@@ -6982,8 +8786,14 @@
       <c r="D299" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E299" s="4">
+        <v>1</v>
+      </c>
+      <c r="F299" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>419</v>
       </c>
@@ -6996,8 +8806,14 @@
       <c r="D300" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E300" s="4">
+        <v>1</v>
+      </c>
+      <c r="F300" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>419</v>
       </c>
@@ -7010,8 +8826,14 @@
       <c r="D301" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E301" s="4">
+        <v>1</v>
+      </c>
+      <c r="F301" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>419</v>
       </c>
@@ -7024,8 +8846,14 @@
       <c r="D302" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E302" s="4">
+        <v>1</v>
+      </c>
+      <c r="F302" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>419</v>
       </c>
@@ -7038,8 +8866,14 @@
       <c r="D303" s="3" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E303" s="4">
+        <v>1</v>
+      </c>
+      <c r="F303" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>419</v>
       </c>
@@ -7052,8 +8886,14 @@
       <c r="D304" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E304" s="4">
+        <v>1</v>
+      </c>
+      <c r="F304" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>419</v>
       </c>
@@ -7066,8 +8906,14 @@
       <c r="D305" s="3" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E305" s="4">
+        <v>1</v>
+      </c>
+      <c r="F305" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>419</v>
       </c>
@@ -7080,8 +8926,14 @@
       <c r="D306" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E306" s="4">
+        <v>1</v>
+      </c>
+      <c r="F306" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>419</v>
       </c>
@@ -7094,8 +8946,14 @@
       <c r="D307" s="3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E307" s="4">
+        <v>1</v>
+      </c>
+      <c r="F307" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>419</v>
       </c>
@@ -7108,8 +8966,14 @@
       <c r="D308" s="3" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E308" s="4">
+        <v>1</v>
+      </c>
+      <c r="F308" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>419</v>
       </c>
@@ -7122,8 +8986,14 @@
       <c r="D309" s="3" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E309" s="4">
+        <v>1</v>
+      </c>
+      <c r="F309" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>419</v>
       </c>
@@ -7136,8 +9006,14 @@
       <c r="D310" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E310" s="4">
+        <v>1</v>
+      </c>
+      <c r="F310" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>419</v>
       </c>
@@ -7150,8 +9026,14 @@
       <c r="D311" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E311" s="4">
+        <v>1</v>
+      </c>
+      <c r="F311" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>419</v>
       </c>
@@ -7164,8 +9046,14 @@
       <c r="D312" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E312" s="4">
+        <v>1</v>
+      </c>
+      <c r="F312" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>419</v>
       </c>
@@ -7178,8 +9066,14 @@
       <c r="D313" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E313" s="4">
+        <v>1</v>
+      </c>
+      <c r="F313" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>419</v>
       </c>
@@ -7192,8 +9086,14 @@
       <c r="D314" s="3" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E314" s="4">
+        <v>1</v>
+      </c>
+      <c r="F314" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>419</v>
       </c>
@@ -7206,8 +9106,14 @@
       <c r="D315" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E315" s="4">
+        <v>1</v>
+      </c>
+      <c r="F315" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>419</v>
       </c>
@@ -7220,8 +9126,14 @@
       <c r="D316" s="3" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E316" s="4">
+        <v>1</v>
+      </c>
+      <c r="F316" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>419</v>
       </c>
@@ -7234,8 +9146,14 @@
       <c r="D317" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E317" s="4">
+        <v>1</v>
+      </c>
+      <c r="F317" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>419</v>
       </c>
@@ -7248,8 +9166,14 @@
       <c r="D318" s="3" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E318" s="4">
+        <v>1</v>
+      </c>
+      <c r="F318" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>419</v>
       </c>
@@ -7262,8 +9186,14 @@
       <c r="D319" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E319" s="4">
+        <v>1</v>
+      </c>
+      <c r="F319" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>419</v>
       </c>
@@ -7276,8 +9206,14 @@
       <c r="D320" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E320" s="4">
+        <v>1</v>
+      </c>
+      <c r="F320" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>419</v>
       </c>
@@ -7290,8 +9226,14 @@
       <c r="D321" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E321" s="4">
+        <v>1</v>
+      </c>
+      <c r="F321" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>607</v>
       </c>
@@ -7304,8 +9246,14 @@
       <c r="D322" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E322" s="4">
+        <v>1</v>
+      </c>
+      <c r="F322" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>607</v>
       </c>
@@ -7318,8 +9266,14 @@
       <c r="D323" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E323" s="4">
+        <v>1</v>
+      </c>
+      <c r="F323" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>607</v>
       </c>
@@ -7332,8 +9286,14 @@
       <c r="D324" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E324" s="4">
+        <v>1</v>
+      </c>
+      <c r="F324" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>607</v>
       </c>
@@ -7346,8 +9306,14 @@
       <c r="D325" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E325" s="4">
+        <v>1</v>
+      </c>
+      <c r="F325" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>607</v>
       </c>
@@ -7360,8 +9326,14 @@
       <c r="D326" s="3" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E326" s="4">
+        <v>1</v>
+      </c>
+      <c r="F326" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>607</v>
       </c>
@@ -7374,8 +9346,14 @@
       <c r="D327" s="3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E327" s="4">
+        <v>1</v>
+      </c>
+      <c r="F327" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>607</v>
       </c>
@@ -7388,8 +9366,14 @@
       <c r="D328" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E328" s="4">
+        <v>1</v>
+      </c>
+      <c r="F328" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>607</v>
       </c>
@@ -7402,8 +9386,14 @@
       <c r="D329" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E329" s="4">
+        <v>1</v>
+      </c>
+      <c r="F329" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>607</v>
       </c>
@@ -7416,8 +9406,14 @@
       <c r="D330" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E330" s="4">
+        <v>1</v>
+      </c>
+      <c r="F330" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>607</v>
       </c>
@@ -7430,8 +9426,14 @@
       <c r="D331" s="3" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E331" s="4">
+        <v>1</v>
+      </c>
+      <c r="F331" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>607</v>
       </c>
@@ -7444,8 +9446,14 @@
       <c r="D332" s="3" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E332" s="4">
+        <v>1</v>
+      </c>
+      <c r="F332" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>607</v>
       </c>
@@ -7458,8 +9466,14 @@
       <c r="D333" s="3" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E333" s="4">
+        <v>1</v>
+      </c>
+      <c r="F333" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>607</v>
       </c>
@@ -7472,8 +9486,14 @@
       <c r="D334" s="3" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E334" s="4">
+        <v>1</v>
+      </c>
+      <c r="F334" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>607</v>
       </c>
@@ -7486,8 +9506,14 @@
       <c r="D335" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E335" s="4">
+        <v>1</v>
+      </c>
+      <c r="F335" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>607</v>
       </c>
@@ -7500,8 +9526,14 @@
       <c r="D336" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E336" s="4">
+        <v>1</v>
+      </c>
+      <c r="F336" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>607</v>
       </c>
@@ -7514,8 +9546,14 @@
       <c r="D337" s="3" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E337" s="4">
+        <v>1</v>
+      </c>
+      <c r="F337" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>607</v>
       </c>
@@ -7528,8 +9566,14 @@
       <c r="D338" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E338" s="4">
+        <v>1</v>
+      </c>
+      <c r="F338" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>607</v>
       </c>
@@ -7542,8 +9586,14 @@
       <c r="D339" s="3" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E339" s="4">
+        <v>1</v>
+      </c>
+      <c r="F339" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>607</v>
       </c>
@@ -7556,8 +9606,14 @@
       <c r="D340" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E340" s="4">
+        <v>1</v>
+      </c>
+      <c r="F340" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>607</v>
       </c>
@@ -7570,8 +9626,14 @@
       <c r="D341" s="3" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E341" s="4">
+        <v>1</v>
+      </c>
+      <c r="F341" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>607</v>
       </c>
@@ -7584,8 +9646,14 @@
       <c r="D342" s="3" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E342" s="4">
+        <v>1</v>
+      </c>
+      <c r="F342" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>607</v>
       </c>
@@ -7598,8 +9666,14 @@
       <c r="D343" s="3" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E343" s="4">
+        <v>1</v>
+      </c>
+      <c r="F343" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>607</v>
       </c>
@@ -7612,8 +9686,14 @@
       <c r="D344" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E344" s="4">
+        <v>1</v>
+      </c>
+      <c r="F344" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>607</v>
       </c>
@@ -7626,8 +9706,14 @@
       <c r="D345" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E345" s="4">
+        <v>1</v>
+      </c>
+      <c r="F345" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>607</v>
       </c>
@@ -7640,8 +9726,14 @@
       <c r="D346" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E346" s="4">
+        <v>1</v>
+      </c>
+      <c r="F346" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>607</v>
       </c>
@@ -7654,8 +9746,14 @@
       <c r="D347" s="3" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E347" s="4">
+        <v>1</v>
+      </c>
+      <c r="F347" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>607</v>
       </c>
@@ -7668,8 +9766,14 @@
       <c r="D348" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E348" s="4">
+        <v>1</v>
+      </c>
+      <c r="F348" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>607</v>
       </c>
@@ -7682,8 +9786,14 @@
       <c r="D349" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E349" s="4">
+        <v>1</v>
+      </c>
+      <c r="F349" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>607</v>
       </c>
@@ -7696,8 +9806,14 @@
       <c r="D350" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E350" s="4">
+        <v>1</v>
+      </c>
+      <c r="F350" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>607</v>
       </c>
@@ -7710,8 +9826,14 @@
       <c r="D351" s="3" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E351" s="4">
+        <v>1</v>
+      </c>
+      <c r="F351" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>607</v>
       </c>
@@ -7724,8 +9846,14 @@
       <c r="D352" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E352" s="4">
+        <v>1</v>
+      </c>
+      <c r="F352" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>607</v>
       </c>
@@ -7738,8 +9866,14 @@
       <c r="D353" s="3" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E353" s="4">
+        <v>1</v>
+      </c>
+      <c r="F353" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>607</v>
       </c>
@@ -7752,8 +9886,14 @@
       <c r="D354" s="3" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E354" s="4">
+        <v>1</v>
+      </c>
+      <c r="F354" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>607</v>
       </c>
@@ -7766,8 +9906,14 @@
       <c r="D355" s="3" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E355" s="4">
+        <v>1</v>
+      </c>
+      <c r="F355" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>607</v>
       </c>
@@ -7780,8 +9926,14 @@
       <c r="D356" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E356" s="4">
+        <v>1</v>
+      </c>
+      <c r="F356" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>607</v>
       </c>
@@ -7794,8 +9946,14 @@
       <c r="D357" s="3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E357" s="4">
+        <v>1</v>
+      </c>
+      <c r="F357" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>607</v>
       </c>
@@ -7808,8 +9966,14 @@
       <c r="D358" s="3" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E358" s="4">
+        <v>1</v>
+      </c>
+      <c r="F358" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>607</v>
       </c>
@@ -7822,8 +9986,14 @@
       <c r="D359" s="3" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E359" s="4">
+        <v>1</v>
+      </c>
+      <c r="F359" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>607</v>
       </c>
@@ -7836,8 +10006,14 @@
       <c r="D360" s="3" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E360" s="4">
+        <v>1</v>
+      </c>
+      <c r="F360" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>607</v>
       </c>
@@ -7850,8 +10026,14 @@
       <c r="D361" s="3" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E361" s="4">
+        <v>1</v>
+      </c>
+      <c r="F361" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>607</v>
       </c>
@@ -7864,8 +10046,14 @@
       <c r="D362" s="3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E362" s="4">
+        <v>1</v>
+      </c>
+      <c r="F362" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>607</v>
       </c>
@@ -7878,8 +10066,14 @@
       <c r="D363" s="3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E363" s="4">
+        <v>1</v>
+      </c>
+      <c r="F363" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>607</v>
       </c>
@@ -7892,8 +10086,14 @@
       <c r="D364" s="3" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E364" s="4">
+        <v>1</v>
+      </c>
+      <c r="F364" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>607</v>
       </c>
@@ -7906,8 +10106,14 @@
       <c r="D365" s="3" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E365" s="4">
+        <v>1</v>
+      </c>
+      <c r="F365" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>607</v>
       </c>
@@ -7920,8 +10126,14 @@
       <c r="D366" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E366" s="4">
+        <v>1</v>
+      </c>
+      <c r="F366" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>607</v>
       </c>
@@ -7934,8 +10146,14 @@
       <c r="D367" s="3" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E367" s="4">
+        <v>1</v>
+      </c>
+      <c r="F367" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>607</v>
       </c>
@@ -7948,8 +10166,14 @@
       <c r="D368" s="3" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E368" s="4">
+        <v>1</v>
+      </c>
+      <c r="F368" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>607</v>
       </c>
@@ -7962,8 +10186,14 @@
       <c r="D369" s="3" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E369" s="4">
+        <v>1</v>
+      </c>
+      <c r="F369" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>607</v>
       </c>
@@ -7976,8 +10206,14 @@
       <c r="D370" s="3" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E370" s="4">
+        <v>1</v>
+      </c>
+      <c r="F370" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>607</v>
       </c>
@@ -7990,8 +10226,14 @@
       <c r="D371" s="3" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E371" s="4">
+        <v>1</v>
+      </c>
+      <c r="F371" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>607</v>
       </c>
@@ -8004,8 +10246,14 @@
       <c r="D372" s="3" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E372" s="4">
+        <v>1</v>
+      </c>
+      <c r="F372" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>607</v>
       </c>
@@ -8018,8 +10266,14 @@
       <c r="D373" s="3" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E373" s="4">
+        <v>1</v>
+      </c>
+      <c r="F373" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>607</v>
       </c>
@@ -8032,8 +10286,14 @@
       <c r="D374" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E374" s="4">
+        <v>1</v>
+      </c>
+      <c r="F374" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>607</v>
       </c>
@@ -8046,8 +10306,14 @@
       <c r="D375" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E375" s="4">
+        <v>1</v>
+      </c>
+      <c r="F375" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>607</v>
       </c>
@@ -8060,8 +10326,14 @@
       <c r="D376" s="3" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E376" s="4">
+        <v>1</v>
+      </c>
+      <c r="F376" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>607</v>
       </c>
@@ -8074,8 +10346,14 @@
       <c r="D377" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E377" s="4">
+        <v>1</v>
+      </c>
+      <c r="F377" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>607</v>
       </c>
@@ -8088,8 +10366,14 @@
       <c r="D378" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E378" s="4">
+        <v>1</v>
+      </c>
+      <c r="F378" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>607</v>
       </c>
@@ -8102,8 +10386,14 @@
       <c r="D379" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E379" s="4">
+        <v>1</v>
+      </c>
+      <c r="F379" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>607</v>
       </c>
@@ -8116,8 +10406,14 @@
       <c r="D380" s="3" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E380" s="4">
+        <v>1</v>
+      </c>
+      <c r="F380" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>607</v>
       </c>
@@ -8130,8 +10426,14 @@
       <c r="D381" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E381" s="4">
+        <v>1</v>
+      </c>
+      <c r="F381" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>607</v>
       </c>
@@ -8144,8 +10446,14 @@
       <c r="D382" s="3" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E382" s="4">
+        <v>1</v>
+      </c>
+      <c r="F382" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>607</v>
       </c>
@@ -8158,8 +10466,14 @@
       <c r="D383" s="3" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E383" s="4">
+        <v>1</v>
+      </c>
+      <c r="F383" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>607</v>
       </c>
@@ -8172,8 +10486,14 @@
       <c r="D384" s="3" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E384" s="4">
+        <v>1</v>
+      </c>
+      <c r="F384" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>607</v>
       </c>
@@ -8186,8 +10506,14 @@
       <c r="D385" s="3" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E385" s="4">
+        <v>1</v>
+      </c>
+      <c r="F385" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>607</v>
       </c>
@@ -8200,8 +10526,14 @@
       <c r="D386" s="3" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E386" s="4">
+        <v>1</v>
+      </c>
+      <c r="F386" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>607</v>
       </c>
@@ -8214,8 +10546,14 @@
       <c r="D387" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E387" s="4">
+        <v>1</v>
+      </c>
+      <c r="F387" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>607</v>
       </c>
@@ -8228,8 +10566,14 @@
       <c r="D388" s="3" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E388" s="4">
+        <v>1</v>
+      </c>
+      <c r="F388" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>607</v>
       </c>
@@ -8242,8 +10586,14 @@
       <c r="D389" s="3" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E389" s="4">
+        <v>1</v>
+      </c>
+      <c r="F389" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>607</v>
       </c>
@@ -8256,8 +10606,14 @@
       <c r="D390" s="3" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E390" s="4">
+        <v>1</v>
+      </c>
+      <c r="F390" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>607</v>
       </c>
@@ -8270,8 +10626,14 @@
       <c r="D391" s="3" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E391" s="4">
+        <v>1</v>
+      </c>
+      <c r="F391" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>607</v>
       </c>
@@ -8284,8 +10646,14 @@
       <c r="D392" s="3" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E392" s="4">
+        <v>1</v>
+      </c>
+      <c r="F392" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>607</v>
       </c>
@@ -8298,8 +10666,14 @@
       <c r="D393" s="3" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E393" s="4">
+        <v>1</v>
+      </c>
+      <c r="F393" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>607</v>
       </c>
@@ -8312,8 +10686,14 @@
       <c r="D394" s="3" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E394" s="4">
+        <v>1</v>
+      </c>
+      <c r="F394" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>607</v>
       </c>
@@ -8326,8 +10706,14 @@
       <c r="D395" s="3" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E395" s="4">
+        <v>1</v>
+      </c>
+      <c r="F395" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>607</v>
       </c>
@@ -8340,8 +10726,14 @@
       <c r="D396" s="3" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E396" s="4">
+        <v>1</v>
+      </c>
+      <c r="F396" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>607</v>
       </c>
@@ -8354,8 +10746,14 @@
       <c r="D397" s="3" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E397" s="4">
+        <v>1</v>
+      </c>
+      <c r="F397" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>607</v>
       </c>
@@ -8368,8 +10766,14 @@
       <c r="D398" s="3" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E398" s="4">
+        <v>1</v>
+      </c>
+      <c r="F398" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>607</v>
       </c>
@@ -8382,8 +10786,14 @@
       <c r="D399" s="3" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E399" s="4">
+        <v>1</v>
+      </c>
+      <c r="F399" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>607</v>
       </c>
@@ -8396,8 +10806,14 @@
       <c r="D400" s="3" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E400" s="4">
+        <v>1</v>
+      </c>
+      <c r="F400" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>607</v>
       </c>
@@ -8410,8 +10826,14 @@
       <c r="D401" s="3" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E401" s="4">
+        <v>1</v>
+      </c>
+      <c r="F401" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>607</v>
       </c>
@@ -8424,8 +10846,14 @@
       <c r="D402" s="3" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E402" s="4">
+        <v>1</v>
+      </c>
+      <c r="F402" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>607</v>
       </c>
@@ -8438,8 +10866,14 @@
       <c r="D403" s="3" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E403" s="4">
+        <v>1</v>
+      </c>
+      <c r="F403" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>607</v>
       </c>
@@ -8452,8 +10886,14 @@
       <c r="D404" s="3" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E404" s="4">
+        <v>1</v>
+      </c>
+      <c r="F404" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>607</v>
       </c>
@@ -8466,8 +10906,14 @@
       <c r="D405" s="3" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E405" s="4">
+        <v>1</v>
+      </c>
+      <c r="F405" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>607</v>
       </c>
@@ -8480,8 +10926,14 @@
       <c r="D406" s="3" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E406" s="4">
+        <v>1</v>
+      </c>
+      <c r="F406" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>607</v>
       </c>
@@ -8494,8 +10946,14 @@
       <c r="D407" s="3" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E407" s="4">
+        <v>1</v>
+      </c>
+      <c r="F407" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>607</v>
       </c>
@@ -8508,8 +10966,14 @@
       <c r="D408" s="3" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E408" s="4">
+        <v>1</v>
+      </c>
+      <c r="F408" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>607</v>
       </c>
@@ -8522,8 +10986,14 @@
       <c r="D409" s="3" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E409" s="4">
+        <v>1</v>
+      </c>
+      <c r="F409" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>607</v>
       </c>
@@ -8536,8 +11006,14 @@
       <c r="D410" s="3" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E410" s="4">
+        <v>1</v>
+      </c>
+      <c r="F410" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>607</v>
       </c>
@@ -8550,8 +11026,14 @@
       <c r="D411" s="3" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E411" s="4">
+        <v>1</v>
+      </c>
+      <c r="F411" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>607</v>
       </c>
@@ -8564,8 +11046,14 @@
       <c r="D412" s="3" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E412" s="4">
+        <v>1</v>
+      </c>
+      <c r="F412" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>607</v>
       </c>
@@ -8578,8 +11066,14 @@
       <c r="D413" s="3" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E413" s="4">
+        <v>1</v>
+      </c>
+      <c r="F413" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>607</v>
       </c>
@@ -8592,8 +11086,14 @@
       <c r="D414" s="3" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E414" s="4">
+        <v>1</v>
+      </c>
+      <c r="F414" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>607</v>
       </c>
@@ -8606,8 +11106,14 @@
       <c r="D415" s="3" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E415" s="4">
+        <v>1</v>
+      </c>
+      <c r="F415" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
@@ -8620,8 +11126,14 @@
       <c r="D416" s="3" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E416" s="4">
+        <v>1</v>
+      </c>
+      <c r="F416" s="12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>607</v>
       </c>
@@ -8633,6 +11145,12 @@
       </c>
       <c r="D417" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="E417" s="4">
+        <v>1</v>
+      </c>
+      <c r="F417" s="12">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
